--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
@@ -534,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2750083333333334</v>
+        <v>0.8540296666666668</v>
       </c>
       <c r="H2">
-        <v>0.825025</v>
+        <v>2.562089</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N2">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q2">
-        <v>0.8498735612972221</v>
+        <v>1.418048793156333</v>
       </c>
       <c r="R2">
-        <v>7.648862051674999</v>
+        <v>12.762439138407</v>
       </c>
       <c r="S2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="T2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2750083333333334</v>
+        <v>0.8540296666666668</v>
       </c>
       <c r="H3">
-        <v>0.825025</v>
+        <v>2.562089</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O3">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P3">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q3">
-        <v>6.922223849669444</v>
+        <v>21.49674686315656</v>
       </c>
       <c r="R3">
-        <v>62.30001464702499</v>
+        <v>193.470721768409</v>
       </c>
       <c r="S3">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="T3">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2750083333333334</v>
+        <v>0.8540296666666668</v>
       </c>
       <c r="H4">
-        <v>0.825025</v>
+        <v>2.562089</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N4">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q4">
-        <v>4.494096897294444</v>
+        <v>15.25826056045167</v>
       </c>
       <c r="R4">
-        <v>40.44687207565</v>
+        <v>137.324345044065</v>
       </c>
       <c r="S4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="T4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
     </row>
   </sheetData>
